--- a/public/career_template.xlsx
+++ b/public/career_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soheekim/Desktop/career-period-calculator/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D1667C-7057-DC4F-89C6-4AEE8E3BB17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F47CD3D-BA92-BE4E-8647-1AE7EFC40511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="1040" windowWidth="25600" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="1040" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="경력사항" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3C7166-9835-4848-BE37-C817DF374E72}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/public/career_template.xlsx
+++ b/public/career_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soheekim/Desktop/career-period-calculator/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F47CD3D-BA92-BE4E-8647-1AE7EFC40511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145551FF-1E22-0F40-A410-B4797CF68A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2840" yWindow="1040" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>사업명</t>
   </si>
   <si>
-    <t>종료년월</t>
-  </si>
-  <si>
     <t>담당업무</t>
   </si>
   <si>
@@ -57,10 +54,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>시작년월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>회사/발주처</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -101,10 +94,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. 시작년월과 종료년월은 다음과 같이 입력하세요: 2023-04, 2024-12 (대시 포함, 월은 두 자리)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 A, 프로젝트 B, 프로젝트 C…</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -129,7 +118,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2. 근무형태: 프리랜서, 정규직, 계약직 등을 입력하세요. (필수 입력란은 아닙니다.)</t>
+    <t>시작연월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료연월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시작연월과 종료연월은 다음과 같이 입력하세요: 2023-04, 2024-12 (대시 포함, 월은 두 자리)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 근무형태: 프리랜서, 정규직, 계약직 등을 입력하세요.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -605,27 +606,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4">
         <v>44562</v>
@@ -634,21 +635,21 @@
         <v>45627</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>45566</v>
@@ -657,21 +658,21 @@
         <v>45689</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>45658</v>
@@ -680,16 +681,16 @@
         <v>45809</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1029,7 +1030,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1 C1 D1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1 D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1038,9 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3C7166-9835-4848-BE37-C817DF374E72}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -1050,7 +1049,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1060,12 +1059,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
